--- a/earlywarning-pom/earlywarning-config/src/baf-instances/43_Inst_Analysis_Unit_CIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/43_Inst_Analysis_Unit_CIB.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HD 500 Gb/Documenti Michele/Lavoro/configurazione CIB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\WS CIB svil\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="460" windowWidth="29380" windowHeight="13380" activeTab="1"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="29385" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
     <sheet name="r AnalysisUnit_Variable" sheetId="2" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="340">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -133,12 +133,6 @@
     <t>EXPOSURE</t>
   </si>
   <si>
-    <t>COUNTERPARTY_BIR</t>
-  </si>
-  <si>
-    <t>Counterparty BIR</t>
-  </si>
-  <si>
     <t>CUSTOMER_ANALYSIS_UNIT_CIB</t>
   </si>
   <si>
@@ -188,6 +182,894 @@
   </si>
   <si>
     <t>CIB_IND_2</t>
+  </si>
+  <si>
+    <t>CIB_IND_3</t>
+  </si>
+  <si>
+    <t>CIB_IND_6</t>
+  </si>
+  <si>
+    <t>CIB_IND_7</t>
+  </si>
+  <si>
+    <t>CIB_IND_8</t>
+  </si>
+  <si>
+    <t>CIB_IND_9</t>
+  </si>
+  <si>
+    <t>CIB_IND_10</t>
+  </si>
+  <si>
+    <t>CIB_IND_11</t>
+  </si>
+  <si>
+    <t>CIB_IND_12</t>
+  </si>
+  <si>
+    <t>CIB_IND_13</t>
+  </si>
+  <si>
+    <t>CIB_IND_14</t>
+  </si>
+  <si>
+    <t>CIB_IND_15</t>
+  </si>
+  <si>
+    <t>CIB_IND_16</t>
+  </si>
+  <si>
+    <t>CIB_IND_17</t>
+  </si>
+  <si>
+    <t>CIB_IND_20</t>
+  </si>
+  <si>
+    <t>CIB_IND_23</t>
+  </si>
+  <si>
+    <t>CIB_IND_24</t>
+  </si>
+  <si>
+    <t>CIB_IND_27</t>
+  </si>
+  <si>
+    <t>CIB_IND_28</t>
+  </si>
+  <si>
+    <t>CIB_IND_29</t>
+  </si>
+  <si>
+    <t>CIB_IND_30</t>
+  </si>
+  <si>
+    <t>CIB_IND_31</t>
+  </si>
+  <si>
+    <t>CIB_IND_32</t>
+  </si>
+  <si>
+    <t>CIB_IND_34</t>
+  </si>
+  <si>
+    <t>CIB_IND_35</t>
+  </si>
+  <si>
+    <t>CIB_IND_36</t>
+  </si>
+  <si>
+    <t>CIB_IND_37</t>
+  </si>
+  <si>
+    <t>CIB_IND_38</t>
+  </si>
+  <si>
+    <t>CIB_IND_39</t>
+  </si>
+  <si>
+    <t>CIB_IND_40</t>
+  </si>
+  <si>
+    <t>CIB_IND_41</t>
+  </si>
+  <si>
+    <t>CIB_IND_42</t>
+  </si>
+  <si>
+    <t>CIB_IND_43</t>
+  </si>
+  <si>
+    <t>CIB_IND_44</t>
+  </si>
+  <si>
+    <t>CIB_IND_47</t>
+  </si>
+  <si>
+    <t>CIB_IND_48</t>
+  </si>
+  <si>
+    <t>CIB_IND_49</t>
+  </si>
+  <si>
+    <t>CIB_IND_50</t>
+  </si>
+  <si>
+    <t>CIB_IND_51</t>
+  </si>
+  <si>
+    <t>CIB_IND_54</t>
+  </si>
+  <si>
+    <t>CIB_IND_55</t>
+  </si>
+  <si>
+    <t>CIB_IND_56</t>
+  </si>
+  <si>
+    <t>CIB_IND_58</t>
+  </si>
+  <si>
+    <t>CIB_IND_60</t>
+  </si>
+  <si>
+    <t>CIB_IND_61</t>
+  </si>
+  <si>
+    <t>CIB_IND_62</t>
+  </si>
+  <si>
+    <t>CIB_IND_63</t>
+  </si>
+  <si>
+    <t>CIB_IND_64</t>
+  </si>
+  <si>
+    <t>CIB_IND_65</t>
+  </si>
+  <si>
+    <t>CIB_IND_66</t>
+  </si>
+  <si>
+    <t>CIB_IND_67</t>
+  </si>
+  <si>
+    <t>CIB_IND_68</t>
+  </si>
+  <si>
+    <t>CIB_IND_69</t>
+  </si>
+  <si>
+    <t>CIB_IND_70</t>
+  </si>
+  <si>
+    <t>CIB_IND_71</t>
+  </si>
+  <si>
+    <t>CIB_IND_72</t>
+  </si>
+  <si>
+    <t>CIB_IND_73</t>
+  </si>
+  <si>
+    <t>CIB_IND_74</t>
+  </si>
+  <si>
+    <t>CIB_IND_75</t>
+  </si>
+  <si>
+    <t>CIB_IND_76</t>
+  </si>
+  <si>
+    <t>CIB_IND_77</t>
+  </si>
+  <si>
+    <t>CIB_IND_78</t>
+  </si>
+  <si>
+    <t>CIB_IND_79</t>
+  </si>
+  <si>
+    <t>CIB_IND_80</t>
+  </si>
+  <si>
+    <t>CIB_IND_81</t>
+  </si>
+  <si>
+    <t>CIB_IND_82</t>
+  </si>
+  <si>
+    <t>CIB_IND_83</t>
+  </si>
+  <si>
+    <t>CIB_IND_84</t>
+  </si>
+  <si>
+    <t>CIB_IND_85</t>
+  </si>
+  <si>
+    <t>CIB_IND_86</t>
+  </si>
+  <si>
+    <t>CIB_IND_87</t>
+  </si>
+  <si>
+    <t>CIB_IND_88</t>
+  </si>
+  <si>
+    <t>CIB_IND_89</t>
+  </si>
+  <si>
+    <t>CIB_IND_90</t>
+  </si>
+  <si>
+    <t>CIB_IND_91</t>
+  </si>
+  <si>
+    <t>CIB_IND_92</t>
+  </si>
+  <si>
+    <t>CIB_IND_93</t>
+  </si>
+  <si>
+    <t>CIB_IND_94</t>
+  </si>
+  <si>
+    <t>CIB_IND_95</t>
+  </si>
+  <si>
+    <t>CIB_IND_96</t>
+  </si>
+  <si>
+    <t>CIB_IND_97</t>
+  </si>
+  <si>
+    <t>CIB_IND_98</t>
+  </si>
+  <si>
+    <t>CIB_IND_99</t>
+  </si>
+  <si>
+    <t>CIB_IND_100</t>
+  </si>
+  <si>
+    <t>CIB_IND_101</t>
+  </si>
+  <si>
+    <t>CIB_IND_102</t>
+  </si>
+  <si>
+    <t>CIB_IND_103</t>
+  </si>
+  <si>
+    <t>CIB_IND_104</t>
+  </si>
+  <si>
+    <t>CIB_IND_105</t>
+  </si>
+  <si>
+    <t>CIB_IND_106</t>
+  </si>
+  <si>
+    <t>CIB_IND_107</t>
+  </si>
+  <si>
+    <t>CIB_IND_108</t>
+  </si>
+  <si>
+    <t>CIB_IND_109</t>
+  </si>
+  <si>
+    <t>CIB_IND_110</t>
+  </si>
+  <si>
+    <t>CIB_IND_111</t>
+  </si>
+  <si>
+    <t>CIB_IND_112</t>
+  </si>
+  <si>
+    <t>CIB_IND_113</t>
+  </si>
+  <si>
+    <t>CIB_IND_114</t>
+  </si>
+  <si>
+    <t>CIB_IND_115</t>
+  </si>
+  <si>
+    <t>CIB_IND_116</t>
+  </si>
+  <si>
+    <t>CIB_IND_122</t>
+  </si>
+  <si>
+    <t>CIB_IND_123</t>
+  </si>
+  <si>
+    <t>CIB_IND_124</t>
+  </si>
+  <si>
+    <t>CIB_IND_125</t>
+  </si>
+  <si>
+    <t>CIB_IND_126</t>
+  </si>
+  <si>
+    <t>CIB_IND_127</t>
+  </si>
+  <si>
+    <t>CIB_IND_128</t>
+  </si>
+  <si>
+    <t>CIB_IND_129</t>
+  </si>
+  <si>
+    <t>CIB_IND_130</t>
+  </si>
+  <si>
+    <t>CIB_IND_131</t>
+  </si>
+  <si>
+    <t>CIB_IND_132</t>
+  </si>
+  <si>
+    <t>CIB_IND_133</t>
+  </si>
+  <si>
+    <t>CIB_IND_172</t>
+  </si>
+  <si>
+    <t>CIB_IND_173</t>
+  </si>
+  <si>
+    <t>CIB_IND_174</t>
+  </si>
+  <si>
+    <t>CIB_IND_175</t>
+  </si>
+  <si>
+    <t>CIB_IND_180</t>
+  </si>
+  <si>
+    <t>CIB_IND_181</t>
+  </si>
+  <si>
+    <t>CIB_IND_182</t>
+  </si>
+  <si>
+    <t>CIB_IND_183</t>
+  </si>
+  <si>
+    <t>CIB_IND_187</t>
+  </si>
+  <si>
+    <t>CIB_IND_188</t>
+  </si>
+  <si>
+    <t>CIB_IND_190</t>
+  </si>
+  <si>
+    <t>CIB_IND_191</t>
+  </si>
+  <si>
+    <t>CIB_IND_192</t>
+  </si>
+  <si>
+    <t>CIB_IND_193</t>
+  </si>
+  <si>
+    <t>CIB_IND_194</t>
+  </si>
+  <si>
+    <t>CIB_IND_195</t>
+  </si>
+  <si>
+    <t>CIB_IND_196</t>
+  </si>
+  <si>
+    <t>CIB_IND_197</t>
+  </si>
+  <si>
+    <t>CIB_IND_201</t>
+  </si>
+  <si>
+    <t>CIB_IND_202</t>
+  </si>
+  <si>
+    <t>CIB_IND_204</t>
+  </si>
+  <si>
+    <t>CIB_IND_205</t>
+  </si>
+  <si>
+    <t>CIB_IND_211</t>
+  </si>
+  <si>
+    <t>CIB_IND_212</t>
+  </si>
+  <si>
+    <t>CIB_IND_213</t>
+  </si>
+  <si>
+    <t>CIB_IND_214</t>
+  </si>
+  <si>
+    <t>CIB_IND_215</t>
+  </si>
+  <si>
+    <t>CIB_IND_216</t>
+  </si>
+  <si>
+    <t>CIB_IND_217</t>
+  </si>
+  <si>
+    <t>CIB_IND_218</t>
+  </si>
+  <si>
+    <t>CIB_IND_219</t>
+  </si>
+  <si>
+    <t>CIB_IND_220</t>
+  </si>
+  <si>
+    <t>CIB_IND_221</t>
+  </si>
+  <si>
+    <t>CIB_IND_222</t>
+  </si>
+  <si>
+    <t>CIB_IND_223</t>
+  </si>
+  <si>
+    <t>CIB_IND_224</t>
+  </si>
+  <si>
+    <t>CIB_IND_225</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_3</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_6</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_7</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_8</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_9</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_10</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_11</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_12</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_13</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_14</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_15</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_16</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_17</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_20</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_23</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_24</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_27</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_28</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_29</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_30</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_31</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_32</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_34</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_35</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_36</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_37</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_38</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_39</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_40</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_41</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_42</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_43</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_44</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_47</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_48</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_49</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_50</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_51</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_54</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_55</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_56</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_58</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_60</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_61</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_62</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_63</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_64</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_65</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_66</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_67</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_68</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_69</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_70</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_71</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_72</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_73</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_74</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_75</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_76</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_77</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_78</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_79</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_80</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_81</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_82</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_83</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_84</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_85</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_86</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_87</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_88</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_89</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_90</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_91</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_92</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_93</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_94</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_95</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_96</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_97</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_98</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_99</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_100</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_101</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_102</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_103</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_104</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_105</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_106</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_107</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_108</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_109</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_110</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_111</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_112</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_113</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_114</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_115</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_116</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_122</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_123</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_124</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_125</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_126</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_127</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_128</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_129</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_130</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_131</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_132</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_133</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_172</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_173</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_174</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_175</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_180</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_181</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_182</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_183</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_187</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_188</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_190</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_191</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_192</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_193</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_194</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_195</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_196</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_197</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_201</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_202</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_204</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_205</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_211</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_212</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_213</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_214</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_215</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_216</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_217</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_218</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_219</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_220</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_221</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_222</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_223</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_224</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB_IND_225</t>
   </si>
 </sst>
 </file>
@@ -276,8 +1158,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Variable" xfId="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -797,24 +1679,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -827,7 +1709,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -856,30 +1738,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -891,21 +1773,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -915,7 +1797,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -935,106 +1817,2622 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" t="s">
+        <v>241</v>
+      </c>
+      <c r="E58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" t="s">
+        <v>251</v>
+      </c>
+      <c r="E68" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" t="s">
+        <v>255</v>
+      </c>
+      <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" t="s">
+        <v>258</v>
+      </c>
+      <c r="E75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" t="s">
+        <v>259</v>
+      </c>
+      <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" t="s">
+        <v>261</v>
+      </c>
+      <c r="E78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" t="s">
+        <v>262</v>
+      </c>
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" t="s">
+        <v>269</v>
+      </c>
+      <c r="E86" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" t="s">
+        <v>271</v>
+      </c>
+      <c r="E88" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" t="s">
+        <v>272</v>
+      </c>
+      <c r="E89" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" t="s">
+        <v>275</v>
+      </c>
+      <c r="E92" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" t="s">
+        <v>276</v>
+      </c>
+      <c r="E93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" t="s">
+        <v>277</v>
+      </c>
+      <c r="E94" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" t="s">
+        <v>278</v>
+      </c>
+      <c r="E95" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>279</v>
+      </c>
+      <c r="C96" t="s">
+        <v>279</v>
+      </c>
+      <c r="E96" t="s">
+        <v>36</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>280</v>
+      </c>
+      <c r="C97" t="s">
+        <v>280</v>
+      </c>
+      <c r="E97" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>281</v>
+      </c>
+      <c r="C98" t="s">
+        <v>281</v>
+      </c>
+      <c r="E98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" t="s">
+        <v>282</v>
+      </c>
+      <c r="E99" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100" t="s">
+        <v>36</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" t="s">
+        <v>284</v>
+      </c>
+      <c r="E101" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102" t="s">
+        <v>285</v>
+      </c>
+      <c r="E102" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" t="s">
+        <v>286</v>
+      </c>
+      <c r="E103" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" t="s">
+        <v>287</v>
+      </c>
+      <c r="E104" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" t="s">
+        <v>288</v>
+      </c>
+      <c r="E105" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" t="s">
+        <v>289</v>
+      </c>
+      <c r="E106" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
+        <v>290</v>
+      </c>
+      <c r="C107" t="s">
+        <v>290</v>
+      </c>
+      <c r="E107" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" t="s">
+        <v>291</v>
+      </c>
+      <c r="E108" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" t="s">
+        <v>292</v>
+      </c>
+      <c r="E109" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>293</v>
+      </c>
+      <c r="C110" t="s">
+        <v>293</v>
+      </c>
+      <c r="E110" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>294</v>
+      </c>
+      <c r="C111" t="s">
+        <v>294</v>
+      </c>
+      <c r="E111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" t="s">
+        <v>295</v>
+      </c>
+      <c r="E112" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" t="s">
+        <v>296</v>
+      </c>
+      <c r="E113" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>297</v>
+      </c>
+      <c r="C114" t="s">
+        <v>297</v>
+      </c>
+      <c r="E114" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>298</v>
+      </c>
+      <c r="C115" t="s">
+        <v>298</v>
+      </c>
+      <c r="E115" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>299</v>
+      </c>
+      <c r="C116" t="s">
+        <v>299</v>
+      </c>
+      <c r="E116" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>300</v>
+      </c>
+      <c r="C117" t="s">
+        <v>300</v>
+      </c>
+      <c r="E117" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>301</v>
+      </c>
+      <c r="C118" t="s">
+        <v>301</v>
+      </c>
+      <c r="E118" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>302</v>
+      </c>
+      <c r="C119" t="s">
+        <v>302</v>
+      </c>
+      <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>303</v>
+      </c>
+      <c r="C120" t="s">
+        <v>303</v>
+      </c>
+      <c r="E120" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>304</v>
+      </c>
+      <c r="C121" t="s">
+        <v>304</v>
+      </c>
+      <c r="E121" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>305</v>
+      </c>
+      <c r="C122" t="s">
+        <v>305</v>
+      </c>
+      <c r="E122" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>306</v>
+      </c>
+      <c r="C123" t="s">
+        <v>306</v>
+      </c>
+      <c r="E123" t="s">
+        <v>36</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
+        <v>307</v>
+      </c>
+      <c r="C124" t="s">
+        <v>307</v>
+      </c>
+      <c r="E124" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>308</v>
+      </c>
+      <c r="C125" t="s">
+        <v>308</v>
+      </c>
+      <c r="E125" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>309</v>
+      </c>
+      <c r="C126" t="s">
+        <v>309</v>
+      </c>
+      <c r="E126" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>310</v>
+      </c>
+      <c r="C127" t="s">
+        <v>310</v>
+      </c>
+      <c r="E127" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>311</v>
+      </c>
+      <c r="C128" t="s">
+        <v>311</v>
+      </c>
+      <c r="E128" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>312</v>
+      </c>
+      <c r="C129" t="s">
+        <v>312</v>
+      </c>
+      <c r="E129" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" t="s">
+        <v>313</v>
+      </c>
+      <c r="C130" t="s">
+        <v>313</v>
+      </c>
+      <c r="E130" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>314</v>
+      </c>
+      <c r="C131" t="s">
+        <v>314</v>
+      </c>
+      <c r="E131" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" t="s">
+        <v>315</v>
+      </c>
+      <c r="C132" t="s">
+        <v>315</v>
+      </c>
+      <c r="E132" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" t="s">
+        <v>316</v>
+      </c>
+      <c r="C133" t="s">
+        <v>316</v>
+      </c>
+      <c r="E133" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" t="s">
+        <v>317</v>
+      </c>
+      <c r="E134" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>318</v>
+      </c>
+      <c r="C135" t="s">
+        <v>318</v>
+      </c>
+      <c r="E135" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>319</v>
+      </c>
+      <c r="C136" t="s">
+        <v>319</v>
+      </c>
+      <c r="E136" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s">
+        <v>320</v>
+      </c>
+      <c r="C137" t="s">
+        <v>320</v>
+      </c>
+      <c r="E137" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>321</v>
+      </c>
+      <c r="C138" t="s">
+        <v>321</v>
+      </c>
+      <c r="E138" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>322</v>
+      </c>
+      <c r="C139" t="s">
+        <v>322</v>
+      </c>
+      <c r="E139" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
+        <v>323</v>
+      </c>
+      <c r="C140" t="s">
+        <v>323</v>
+      </c>
+      <c r="E140" t="s">
+        <v>36</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
+        <v>324</v>
+      </c>
+      <c r="C141" t="s">
+        <v>324</v>
+      </c>
+      <c r="E141" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>325</v>
+      </c>
+      <c r="C142" t="s">
+        <v>325</v>
+      </c>
+      <c r="E142" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>326</v>
+      </c>
+      <c r="C143" t="s">
+        <v>326</v>
+      </c>
+      <c r="E143" t="s">
+        <v>36</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s">
+        <v>327</v>
+      </c>
+      <c r="C144" t="s">
+        <v>327</v>
+      </c>
+      <c r="E144" t="s">
+        <v>36</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>328</v>
+      </c>
+      <c r="C145" t="s">
+        <v>328</v>
+      </c>
+      <c r="E145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" t="s">
+        <v>329</v>
+      </c>
+      <c r="C146" t="s">
+        <v>329</v>
+      </c>
+      <c r="E146" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" t="s">
+        <v>330</v>
+      </c>
+      <c r="C147" t="s">
+        <v>330</v>
+      </c>
+      <c r="E147" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" t="s">
+        <v>331</v>
+      </c>
+      <c r="C148" t="s">
+        <v>331</v>
+      </c>
+      <c r="E148" t="s">
+        <v>36</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" t="s">
+        <v>332</v>
+      </c>
+      <c r="E149" t="s">
+        <v>36</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" t="s">
+        <v>333</v>
+      </c>
+      <c r="C150" t="s">
+        <v>333</v>
+      </c>
+      <c r="E150" t="s">
+        <v>36</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" t="s">
+        <v>334</v>
+      </c>
+      <c r="C151" t="s">
+        <v>334</v>
+      </c>
+      <c r="E151" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" t="s">
+        <v>335</v>
+      </c>
+      <c r="C152" t="s">
+        <v>335</v>
+      </c>
+      <c r="E152" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" t="s">
+        <v>336</v>
+      </c>
+      <c r="C153" t="s">
+        <v>336</v>
+      </c>
+      <c r="E153" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" t="s">
+        <v>337</v>
+      </c>
+      <c r="C154" t="s">
+        <v>337</v>
+      </c>
+      <c r="E154" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" t="s">
+        <v>338</v>
+      </c>
+      <c r="C155" t="s">
+        <v>338</v>
+      </c>
+      <c r="E155" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" t="s">
+        <v>339</v>
+      </c>
+      <c r="E156" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1050,18 +4448,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
-    <col min="10" max="13" width="11.6640625" customWidth="1"/>
+    <col min="10" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +4494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1131,7 +4529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/43_Inst_Analysis_Unit_CIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/43_Inst_Analysis_Unit_CIB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\WS CIB svil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,9 +130,6 @@
     <t>CustomerInfoFormula</t>
   </si>
   <si>
-    <t>EXPOSURE</t>
-  </si>
-  <si>
     <t>CUSTOMER_ANALYSIS_UNIT_CIB</t>
   </si>
   <si>
@@ -1070,12 +1067,15 @@
   </si>
   <si>
     <t>COUNTERPARTY_CIB_IND_225</t>
+  </si>
+  <si>
+    <t>CIB_EXPOSURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1191,7 +1191,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1239,7 +1245,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1282,7 +1294,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1330,7 +1348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1378,7 +1402,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1743,25 +1773,25 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1775,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,16 +1852,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1839,16 +1869,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1856,16 +1886,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,16 +1903,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1890,16 +1920,16 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,16 +1937,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,16 +1954,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,16 +1971,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,16 +1988,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1975,16 +2005,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,16 +2022,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2009,16 +2039,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2026,16 +2056,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2043,16 +2073,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,16 +2090,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,16 +2107,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2094,16 +2124,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,16 +2141,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2128,16 +2158,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,16 +2175,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2162,16 +2192,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,16 +2209,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2196,16 +2226,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,16 +2243,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2230,16 +2260,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2247,16 +2277,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,16 +2294,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,16 +2311,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2298,16 +2328,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2315,16 +2345,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2332,16 +2362,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2349,16 +2379,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2366,16 +2396,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2383,16 +2413,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2400,16 +2430,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2417,16 +2447,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2434,16 +2464,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,16 +2481,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2468,16 +2498,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2485,16 +2515,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2502,16 +2532,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2519,16 +2549,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2536,16 +2566,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2553,16 +2583,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2570,16 +2600,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2587,16 +2617,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2604,16 +2634,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2621,16 +2651,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2638,16 +2668,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,16 +2685,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2672,16 +2702,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2689,16 +2719,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2706,16 +2736,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2723,16 +2753,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2740,16 +2770,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2757,16 +2787,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2774,16 +2804,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2791,16 +2821,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2808,16 +2838,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2825,16 +2855,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2842,16 +2872,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2859,16 +2889,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2876,16 +2906,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2893,16 +2923,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2910,16 +2940,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2927,16 +2957,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2944,16 +2974,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,16 +2991,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2978,16 +3008,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2995,16 +3025,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3012,16 +3042,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3029,16 +3059,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3046,16 +3076,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3063,16 +3093,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3080,16 +3110,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3097,16 +3127,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3114,16 +3144,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,16 +3161,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3148,16 +3178,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3165,16 +3195,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3182,16 +3212,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3199,16 +3229,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3216,16 +3246,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3233,16 +3263,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3250,16 +3280,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3267,16 +3297,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3284,16 +3314,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3301,16 +3331,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3318,16 +3348,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,16 +3365,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3352,16 +3382,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3369,16 +3399,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C94" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3386,16 +3416,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C95" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,16 +3433,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C96" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3420,16 +3450,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3437,16 +3467,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3454,16 +3484,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C99" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3471,16 +3501,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3488,16 +3518,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3505,16 +3535,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3522,16 +3552,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C103" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,16 +3569,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3556,16 +3586,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C105" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3573,16 +3603,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C106" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3590,16 +3620,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C107" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3607,16 +3637,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C108" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3624,16 +3654,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3641,16 +3671,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,16 +3688,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3675,16 +3705,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C112" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3692,16 +3722,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C113" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3709,16 +3739,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3726,16 +3756,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C115" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3743,16 +3773,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C116" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3760,16 +3790,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C117" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,16 +3807,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3794,16 +3824,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3811,16 +3841,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3828,16 +3858,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C121" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,16 +3875,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C122" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3862,16 +3892,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C123" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3879,16 +3909,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3896,16 +3926,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3913,16 +3943,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3930,16 +3960,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3947,16 +3977,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C128" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,16 +3994,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3981,16 +4011,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3998,16 +4028,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C131" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,16 +4045,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C132" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4032,16 +4062,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4049,16 +4079,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4066,16 +4096,16 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4083,16 +4113,16 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4100,16 +4130,16 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C137" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4117,16 +4147,16 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C138" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4134,16 +4164,16 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C139" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4151,16 +4181,16 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C140" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4168,16 +4198,16 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C141" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,16 +4215,16 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,16 +4232,16 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C143" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4219,16 +4249,16 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C144" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4236,16 +4266,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4253,16 +4283,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C146" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4270,16 +4300,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C147" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4287,16 +4317,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C148" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,16 +4334,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C149" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4321,16 +4351,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C150" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4338,16 +4368,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4355,16 +4385,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C152" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4372,16 +4402,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C153" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4389,16 +4419,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C154" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4406,16 +4436,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C155" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4423,16 +4453,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C156" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
